--- a/biology/Botanique/Dothideales/Dothideales.xlsx
+++ b/biology/Botanique/Dothideales/Dothideales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dothideales sont un ordre de champignons ascomycètes.
 </t>
@@ -513,19 +525,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des familles
-Selon Catalogue of Life                                   (28 mars 2016)[2] :
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 mars 2016) :
 famille Dothideaceae
 famille Dothioraceae
 famille Incertae sedis
 famille Saccotheciaceae
-Selon ITIS      (28 mars 2016)[1] :
+Selon ITIS      (28 mars 2016) :
 famille Coccoideaceae P. Henn. ex Sacc. &amp; D. Sacc., 1905
 famille Dothideaceae Chevall., 1826
 famille Dothioraceae Theiss. &amp; H. Syd., 1917
-famille Planistromellaceae M.E. Barr, 1996
-Liste des familles, genres, espèces et non-classés
-Selon NCBI  (28 mars 2016)[3] :
+famille Planistromellaceae M.E. Barr, 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dothideales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dothideales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des familles, genres, espèces et non-classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (28 mars 2016) :
 famille Aureobasidiaceae
 genre Aureobasidium
 Aureobasidium caulivorum
